--- a/Stefanini/Stefanini.Clientes/Stefanini.Cliente.Experian/PMOInformatica Plantilla de Product Backlog.xlsx
+++ b/Stefanini/Stefanini.Clientes/Stefanini.Cliente.Experian/PMOInformatica Plantilla de Product Backlog.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e10991a\Documents\Experian.Agile\Experian.Equipos\Experian.Nucleo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\omesan\Agile\Stefanini\Stefanini.Clientes\Stefanini.Cliente.Experian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C77D420C-8903-4740-9CCC-B5870BD47B4B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="1245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="1245"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de Usuario" sheetId="1" r:id="rId1"/>
@@ -21,12 +20,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Historias de Usuario'!$A$1:$I$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Instructivo!$A$1:$D$13</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="67">
   <si>
     <t>Columna</t>
   </si>
@@ -132,9 +131,6 @@
     <t>Revisión Historias usuario</t>
   </si>
   <si>
-    <t>Revisión para revisar Proceso de Despliegue continuo</t>
-  </si>
-  <si>
     <t>Definición de Done</t>
   </si>
   <si>
@@ -232,12 +228,18 @@
   </si>
   <si>
     <t>Tablero de kata Celula No Bancalizados</t>
+  </si>
+  <si>
+    <t>Revisión Proceso de Despliegue continuo</t>
+  </si>
+  <si>
+    <t>Revisión Proceso Desarrollo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -270,7 +272,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,6 +288,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -331,6 +339,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,23 +435,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -476,23 +470,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -668,11 +645,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:C44"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,7 +677,7 @@
     </row>
     <row r="4" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>3</v>
@@ -729,7 +706,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>27</v>
@@ -856,11 +833,11 @@
       <c r="B13" s="6">
         <v>9</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -872,11 +849,11 @@
       <c r="B14" s="6">
         <v>10</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -892,7 +869,7 @@
         <v>30</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -908,7 +885,7 @@
         <v>31</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -920,11 +897,11 @@
       <c r="B17" s="6">
         <v>13</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>32</v>
+      <c r="C17" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -937,10 +914,10 @@
         <v>14</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -952,11 +929,11 @@
       <c r="B19" s="6">
         <v>15</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>34</v>
+      <c r="C19" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -968,11 +945,11 @@
       <c r="B20" s="6">
         <v>16</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>31</v>
+      <c r="C20" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -984,11 +961,11 @@
       <c r="B21" s="6">
         <v>17</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>35</v>
+      <c r="C21" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -1000,11 +977,11 @@
       <c r="B22" s="6">
         <v>18</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>36</v>
+      <c r="C22" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
@@ -1017,10 +994,10 @@
         <v>19</v>
       </c>
       <c r="C23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -1033,10 +1010,10 @@
         <v>20</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -1049,10 +1026,10 @@
         <v>21</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -1065,10 +1042,10 @@
         <v>22</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
@@ -1081,10 +1058,10 @@
         <v>23</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
@@ -1097,10 +1074,10 @@
         <v>24</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
@@ -1113,10 +1090,10 @@
         <v>25</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
@@ -1129,10 +1106,10 @@
         <v>26</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
@@ -1145,10 +1122,10 @@
         <v>27</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
@@ -1161,10 +1138,10 @@
         <v>28</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -1177,10 +1154,10 @@
         <v>29</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -1193,10 +1170,10 @@
         <v>30</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
@@ -1209,10 +1186,10 @@
         <v>31</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
@@ -1225,10 +1202,10 @@
         <v>32</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
@@ -1241,10 +1218,10 @@
         <v>33</v>
       </c>
       <c r="C37" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
@@ -1257,10 +1234,10 @@
         <v>34</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
@@ -1273,10 +1250,10 @@
         <v>35</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
@@ -1289,10 +1266,10 @@
         <v>36</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
@@ -1305,10 +1282,10 @@
         <v>37</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
@@ -1321,10 +1298,10 @@
         <v>38</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
@@ -1337,10 +1314,10 @@
         <v>39</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
@@ -1353,10 +1330,10 @@
         <v>40</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
@@ -1371,7 +1348,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D46A0F-F6DC-49A8-AB8C-343201CE041A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1382,10 +1359,10 @@
   <sheetData>
     <row r="2" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
         <v>55</v>
-      </c>
-      <c r="D2" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1394,7 +1371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
